--- a/CashFlow/NET_cashflow.xlsx
+++ b/CashFlow/NET_cashflow.xlsx
@@ -314,19 +314,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1690000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4314000.0</v>
+        <v>59000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>8731000.0</v>
+        <v>46732000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>5803000.0</v>
+        <v>29630000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5318000.0</v>
+        <v>16652000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>10717000.0</v>
